--- a/Documentation/Activity List.xlsx
+++ b/Documentation/Activity List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sachin\Desktop\2019\sem 2\XBCAD7319\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jarrod\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B9B9A-7B77-4EC4-8AFB-417F9014F2B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475081DB-AAC5-44A5-B86D-0E7A47D715F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{756437C5-08EC-4403-88DF-466204578243}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{756437C5-08EC-4403-88DF-466204578243}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Activity List</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Dependency</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -217,6 +211,51 @@
   </si>
   <si>
     <t>Post Request</t>
+  </si>
+  <si>
+    <t>Dependency Type</t>
+  </si>
+  <si>
+    <t>Depend on Client go ahead</t>
+  </si>
+  <si>
+    <t>Dependent on API Post Login Method</t>
+  </si>
+  <si>
+    <t>Dependent on API Post Register Method</t>
+  </si>
+  <si>
+    <t>Dependent on API GetGoals Method</t>
+  </si>
+  <si>
+    <t>Dependent on API Get Daily Quote Method</t>
+  </si>
+  <si>
+    <t>Dependent on Firebase Storage</t>
+  </si>
+  <si>
+    <t>Dependent on API POST UpdateCV method</t>
+  </si>
+  <si>
+    <t>Dependent on API Post Achievements Method</t>
+  </si>
+  <si>
+    <t>Dependent on Database</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Jarrod</t>
+  </si>
+  <si>
+    <t>Theasan</t>
   </si>
 </sst>
 </file>
@@ -260,53 +299,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,469 +642,791 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AF166D-F90F-45A4-857B-570B5D7EE062}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.69140625" customWidth="1"/>
+    <col min="6" max="6" width="31.07421875" customWidth="1"/>
+    <col min="8" max="8" width="11.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>1.2</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:H5"/>
+  <mergeCells count="48">
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
